--- a/Measurement2.xlsx
+++ b/Measurement2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="0" windowWidth="12800" windowHeight="14100"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14320"/>
   </bookViews>
   <sheets>
     <sheet name="Measurements" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Time [s]</t>
   </si>
@@ -85,6 +85,9 @@
       </rPr>
       <t xml:space="preserve"> = 0.86 </t>
     </r>
+  </si>
+  <si>
+    <t>speed</t>
   </si>
 </sst>
 </file>
@@ -168,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -186,6 +189,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F26"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -500,7 +506,7 @@
     <col min="5" max="5" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -513,8 +519,11 @@
       <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="17">
+      <c r="G1" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -535,14 +544,12 @@
         <f>0.5*(C3-C2)</f>
         <v>2.6150000000000002</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="G2">
+        <f>SQRT(E2^2+F2^2)</f>
+        <v>10.699478959276474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -563,8 +570,12 @@
         <f t="shared" ref="F3:F26" si="1">0.5*(C4-C3)</f>
         <v>2.2100000000000004</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="G3">
+        <f t="shared" ref="G3:G26" si="2">SQRT(E3^2+F3^2)</f>
+        <v>3.4736868022318883</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2">
         <v>4</v>
       </c>
@@ -585,8 +596,12 @@
         <f t="shared" si="1"/>
         <v>6.1950000000000003</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>6.8025087284030743</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>6</v>
       </c>
@@ -607,8 +622,12 @@
         <f t="shared" si="1"/>
         <v>1.2899999999999991</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>6.3964306452896045</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>8</v>
       </c>
@@ -629,8 +648,12 @@
         <f t="shared" si="1"/>
         <v>0.44500000000000028</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>6.046397687879951</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17">
       <c r="A7" s="2">
         <v>10</v>
       </c>
@@ -651,8 +674,18 @@
         <f t="shared" si="1"/>
         <v>3.4450000000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>4.6849386335361967</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
         <v>12</v>
       </c>
@@ -673,8 +706,12 @@
         <f t="shared" si="1"/>
         <v>0.87999999999999901</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>7.4024928233670018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="2">
         <v>14</v>
       </c>
@@ -695,8 +732,12 @@
         <f t="shared" si="1"/>
         <v>3.6850000000000023</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>6.5747433409981886</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="2">
         <v>16</v>
       </c>
@@ -717,8 +758,12 @@
         <f t="shared" si="1"/>
         <v>2.3299999999999983</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>5.3626299518053617</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="2">
         <v>18</v>
       </c>
@@ -739,8 +784,12 @@
         <f t="shared" si="1"/>
         <v>1.2749999999999986</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>5.889662554000866</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="2">
         <v>20</v>
       </c>
@@ -761,8 +810,12 @@
         <f t="shared" si="1"/>
         <v>5.1850000000000023</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>6.0539119583951679</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="2">
         <v>22</v>
       </c>
@@ -783,8 +836,12 @@
         <f t="shared" si="1"/>
         <v>3.9249999999999972</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>6.7081461671612397</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="2">
         <v>24</v>
       </c>
@@ -805,8 +862,12 @@
         <f t="shared" si="1"/>
         <v>0.63500000000000512</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>1.7913263242636717</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="2">
         <v>26</v>
       </c>
@@ -827,8 +888,12 @@
         <f t="shared" si="1"/>
         <v>0.86499999999999488</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>7.9869784649766062</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="2">
         <v>28</v>
       </c>
@@ -849,8 +914,12 @@
         <f t="shared" si="1"/>
         <v>7.8400000000000034</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>9.5682195313443792</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="2">
         <v>30</v>
       </c>
@@ -871,8 +940,12 @@
         <f t="shared" si="1"/>
         <v>-0.43500000000000227</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>6.3598938670389762</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="2">
         <v>32</v>
       </c>
@@ -893,8 +966,12 @@
         <f t="shared" si="1"/>
         <v>2.9849999999999994</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>4.5620965575051144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="2">
         <v>34</v>
       </c>
@@ -915,8 +992,12 @@
         <f t="shared" si="1"/>
         <v>1.5900000000000034</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>6.0139920186179143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="2">
         <v>36</v>
       </c>
@@ -937,8 +1018,12 @@
         <f t="shared" si="1"/>
         <v>-0.78500000000000369</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>5.6101916188308509</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="2">
         <v>38</v>
       </c>
@@ -959,8 +1044,12 @@
         <f t="shared" si="1"/>
         <v>4.9200000000000017</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>5.1940952051343876</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="2">
         <v>40</v>
       </c>
@@ -981,8 +1070,12 @@
         <f t="shared" si="1"/>
         <v>0.52499999999999858</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>7.7029117871101205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="2">
         <v>42</v>
       </c>
@@ -1003,8 +1096,12 @@
         <f t="shared" si="1"/>
         <v>3.605000000000004</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>5.7269996507770156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="2">
         <v>44</v>
       </c>
@@ -1025,8 +1122,12 @@
         <f t="shared" si="1"/>
         <v>4.32</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>5.7567720990152065</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="2">
         <v>46</v>
       </c>
@@ -1047,8 +1148,12 @@
         <f t="shared" si="1"/>
         <v>0.67499999999999716</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>6.3012578109453674</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="2">
         <v>48</v>
       </c>
@@ -1060,14 +1165,6 @@
       </c>
       <c r="D26" s="2">
         <v>5.32</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="0"/>
-        <v>-118.485</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="1"/>
-        <v>-60.25</v>
       </c>
     </row>
   </sheetData>
